--- a/biology/Microbiologie/Caryophanales/Caryophanales.xlsx
+++ b/biology/Microbiologie/Caryophanales/Caryophanales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caryophanales – anciennement Bacillales – sont un ordre de bactéries à Gram positif de la classe des Bacilli. Son nom provient de Caryophanon qui est le genre type de cet ordre.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de l'ordre Caryophanales est la suivante :  Ca.ry.o.pha.na’les N.L. neut. n. Caryophanon, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour désigner un ordre; N.L. fem. pl. n. Caryophanales, ce qui signifie l'ordre de Caryophanon[1],[2].
-Nomenclature
-Cet ordre est proposé dès 1939 par M.A. Peskhoff pour recevoir le genre Caryophanon et la famille des Caryophanaceae décrits simultanément[1]. Il n'est validé qu'en 1980 par son inclusion dans les Approved Lists of Bacterial Names publiées dans l'IJSEM[3].
-En 2019 B.J. Tindall expose les conséquences en termes de nomenclature d'une application rigoureuse des règles de l'ICSP[4]. Si Bacillus et Caryophanon sont placés dans le même taxon, les ordres dont ils sont les genres types – respectivement, Bacillales et Caryophanales – deviennent des synonymes hétérotypiques (règle n°24a du code de nomenclature bactérienne, révision 2008) et le nom retenu pour l'ordre ou la famille dans laquelle ils sont réunis est déterminé par l'ordre de priorité de publication des deux noms (règles n°24b(1) et 38 du même code). L'auteur conclut que, Caryophanales Peshkoff 1939 étant antérieur à Bacillales Prévot 1953, c'est le premier nom qui doit être retenu. Ce raisonnement est suivi par la LPSN  (7 décembre 2022)[2] qui présente Caryophanales comme le nom correct du taxon et Bacillales comme un synonyme.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'ordre Caryophanales est la suivante :  Ca.ry.o.pha.na’les N.L. neut. n. Caryophanon, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour désigner un ordre; N.L. fem. pl. n. Caryophanales, ce qui signifie l'ordre de Caryophanon,.
 </t>
         </is>
       </c>
@@ -543,10 +557,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est proposé dès 1939 par M.A. Peskhoff pour recevoir le genre Caryophanon et la famille des Caryophanaceae décrits simultanément. Il n'est validé qu'en 1980 par son inclusion dans les Approved Lists of Bacterial Names publiées dans l'IJSEM.
+En 2019 B.J. Tindall expose les conséquences en termes de nomenclature d'une application rigoureuse des règles de l'ICSP. Si Bacillus et Caryophanon sont placés dans le même taxon, les ordres dont ils sont les genres types – respectivement, Bacillales et Caryophanales – deviennent des synonymes hétérotypiques (règle n°24a du code de nomenclature bactérienne, révision 2008) et le nom retenu pour l'ordre ou la famille dans laquelle ils sont réunis est déterminé par l'ordre de priorité de publication des deux noms (règles n°24b(1) et 38 du même code). L'auteur conclut que, Caryophanales Peshkoff 1939 étant antérieur à Bacillales Prévot 1953, c'est le premier nom qui doit être retenu. Ce raisonnement est suivi par la LPSN  (7 décembre 2022) qui présente Caryophanales comme le nom correct du taxon et Bacillales comme un synonyme.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,12 +595,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caryophanales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryophanales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (7 décembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (7 décembre 2022) :
 Alicyclobacillaceae da Costa &amp; Rainey 2010
 Bacillaceae Fischer 1895
 Caryophanaceae Peshkoff 1939
